--- a/data/trans_camb/P1432-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1432-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.19637435792739</v>
+        <v>-2.144719188969661</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.637675336445603</v>
+        <v>-1.585483138508689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2497091744428645</v>
+        <v>0.2789182134760501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1367585943722714</v>
+        <v>-0.1854973992951612</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.6298741983688896</v>
+        <v>-0.6237829965360455</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.6230606480470667</v>
+        <v>-0.522621101203584</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.2268062003132872</v>
+        <v>-0.1937636028898458</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5666694776108439</v>
+        <v>0.6036220790147038</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.094300737661302</v>
+        <v>2.891344362135379</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.283847137107281</v>
+        <v>2.346060398256585</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9735460217576932</v>
+        <v>1.104256671140097</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.032441679086713</v>
+        <v>0.9894484289120499</v>
       </c>
     </row>
     <row r="7">
@@ -716,19 +716,19 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.841352332083634</v>
+        <v>-0.8046756055499307</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05929572912369316</v>
+        <v>0.103353319473618</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2465760994526439</v>
+        <v>-0.3006789300009038</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4450636603755401</v>
+        <v>-0.4687563332327052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4733087370937848</v>
+        <v>-0.3818877171341043</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2208628777065525</v>
+        <v>0.1369030640333529</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.049387215732007</v>
+        <v>1.019648509529921</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>11.17387482342087</v>
+        <v>9.755363079630319</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>8.324075209093493</v>
+        <v>7.061707084067107</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.587762607465195</v>
+        <v>1.612307217537941</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.456550535664344</v>
+        <v>1.563807986153085</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.290033635462125</v>
+        <v>-1.232778571548062</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.472914332935106</v>
+        <v>-1.425245838630451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.467188838333595</v>
+        <v>-1.432084626940859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.829277652921609</v>
+        <v>-1.794781829839143</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.126886685283403</v>
+        <v>-1.161871810389618</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.301142639380336</v>
+        <v>-1.304646270342116</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5424019834026649</v>
+        <v>0.5353799209096278</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08152732281894591</v>
+        <v>0.1939485291661317</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.894628619456567</v>
+        <v>0.8378056377925966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4830031077149775</v>
+        <v>0.5143862394172753</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4314354464180355</v>
+        <v>0.4256620558263319</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07543467689356628</v>
+        <v>0.1276631444515221</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.832418562453222</v>
+        <v>-0.8180211017018535</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8661431009875794</v>
+        <v>-0.8611647442819935</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.622623868735994</v>
+        <v>-0.598044654449172</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7592738029284556</v>
+        <v>-0.7520060247574816</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5974646625312789</v>
+        <v>-0.6356019192827748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7161585078395548</v>
+        <v>-0.7015382143022577</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.295828613561517</v>
+        <v>1.378809775797222</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2775124855699975</v>
+        <v>0.5354181907857466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8415854103582385</v>
+        <v>0.8797195661610394</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5388491862136952</v>
+        <v>0.5435322434044438</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4887103730517096</v>
+        <v>0.4458102484169824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1258298603050675</v>
+        <v>0.1733591766026223</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.33695292053482</v>
+        <v>-1.312061176123851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.625189965062203</v>
+        <v>-1.699450406051212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.359326793766536</v>
+        <v>-1.428013089885619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.376123749261586</v>
+        <v>-1.270804144824353</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.110359771902256</v>
+        <v>-1.02481256972601</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.192379729541671</v>
+        <v>-1.02920253930613</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7777798502029938</v>
+        <v>0.6552854811614627</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2447308756571238</v>
+        <v>0.3329484586380906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.229943252969338</v>
+        <v>1.280754433630125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.443274597043087</v>
+        <v>1.387680897527684</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6551952051171936</v>
+        <v>0.7354184311066428</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5713308474853457</v>
+        <v>0.6357215758973881</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8125891893826205</v>
+        <v>-0.8104308891192924</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9069735545988318</v>
+        <v>-0.9091963612196179</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6235971399780208</v>
+        <v>-0.6286843753631929</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6015207415606717</v>
+        <v>-0.5790950116201403</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6135874368731694</v>
+        <v>-0.5906797829536119</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6389747455683631</v>
+        <v>-0.5841956456130515</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.778545041252821</v>
+        <v>1.41411635289107</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9823592324206123</v>
+        <v>1.006623682864209</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.600378154778954</v>
+        <v>1.499611316689694</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.574522939800638</v>
+        <v>1.472661051397268</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7704284166819463</v>
+        <v>0.9126565875185166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6495463391259972</v>
+        <v>0.7926473969743376</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9467726715559786</v>
+        <v>-0.9214533809855887</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.517371366419528</v>
+        <v>-1.508376961367624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.386758036549767</v>
+        <v>-1.480128999659711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.42264866428334</v>
+        <v>-1.395739052895738</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9624114774881041</v>
+        <v>-0.9055384146648846</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.221351775456723</v>
+        <v>-1.213042803652988</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7401564560195205</v>
+        <v>0.8344164943283975</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1766176296498232</v>
+        <v>-0.1008169260583159</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8069721401693973</v>
+        <v>0.7945677505944496</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8714511667524372</v>
+        <v>1.024810162195323</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.470381366527974</v>
+        <v>0.4890941286068651</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1558070535500248</v>
+        <v>0.1662537057984537</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7127503069650579</v>
+        <v>-0.7331877717826956</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6087060855763686</v>
+        <v>-0.6154417709182963</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6357835819111979</v>
+        <v>-0.6255447409163606</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5555789752306902</v>
+        <v>-0.5305458950634584</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6859929601289754</v>
+        <v>-0.6637237818147571</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.321602020908863</v>
+        <v>1.817759288059584</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.08016612411047166</v>
+        <v>0.07526076116091887</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7813577712054114</v>
+        <v>0.7062123612452686</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7684349869085356</v>
+        <v>0.8761183445644408</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4586332326871529</v>
+        <v>0.4921930394802382</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.197259187415686</v>
+        <v>0.2077311902147169</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8842974779698892</v>
+        <v>-0.8904879188947792</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9781676946325941</v>
+        <v>-1.012757001129152</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4688345760969417</v>
+        <v>-0.4513514028322703</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7420225441467622</v>
+        <v>-0.588114278740597</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5249777430663999</v>
+        <v>-0.5535025308388324</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.6765766418896479</v>
+        <v>-0.675661541929751</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05830150004008472</v>
+        <v>0.06214236067024184</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.1621307984279559</v>
+        <v>-0.1315764022548725</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7033453993444768</v>
+        <v>0.7256985242853583</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5219053311891698</v>
+        <v>0.6229321361240968</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2317481105988469</v>
+        <v>0.2790666476641593</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06895911278590609</v>
+        <v>0.06275537682703085</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6733681301722928</v>
+        <v>-0.6652076829424903</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7181700707011812</v>
+        <v>-0.7434427369899415</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2766475024062953</v>
+        <v>-0.2562481835697287</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3887841778148542</v>
+        <v>-0.34057850651749</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3561272958655804</v>
+        <v>-0.3643939931971383</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4555204210587805</v>
+        <v>-0.4468391909106574</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.06971349823550811</v>
+        <v>0.07657470016676028</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1608697872713786</v>
+        <v>-0.09343361631681237</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5557067224116814</v>
+        <v>0.6097528217197348</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4415078487349819</v>
+        <v>0.5594049253589474</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2078014195790539</v>
+        <v>0.2530239110894726</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0669254317932548</v>
+        <v>0.08112935757789408</v>
       </c>
     </row>
     <row r="34">
